--- a/doc/312351012/Assignment3.xlsx
+++ b/doc/312351012/Assignment3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\NCTU\1_碩士\生物機器學習\Assignment#3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A8048-7949-4177-860D-53964193B78A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33166D1B-1DF0-42A8-87C0-F54249ABD72D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Training features</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +77,34 @@
   </si>
   <si>
     <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance Comparison of Different Supervised Learning Methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multilayer Perceptron</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +319,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,12 +383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,7 +1083,738 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8662915555970044E-2"/>
+          <c:y val="4.7733496066855598E-2"/>
+          <c:w val="0.65934031782680746"/>
+          <c:h val="0.85159973840540737"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$3:$L$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.287000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.399000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A08-4FC3-94F0-15038B5E51CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$4:$L$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.736999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A08-4FC3-94F0-15038B5E51CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Support Vector Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$5:$L$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>72.278000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.433000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.355999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.831000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.355999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A08-4FC3-94F0-15038B5E51CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$6:$L$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A08-4FC3-94F0-15038B5E51CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multilayer Perceptron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Q2'!$C$7:$L$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Q2'!$H$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.254000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.337999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.796999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.796000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A08-4FC3-94F0-15038B5E51CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1191890015"/>
+        <c:axId val="1250774367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1191890015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250774367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1250774367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191890015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70578566272440613"/>
+          <c:y val="0.31919289953528146"/>
+          <c:w val="0.28299099437197961"/>
+          <c:h val="0.36161386346770946"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1573,6 +2357,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1598,6 +2885,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>288387</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4884</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC1EE27-A815-48BD-8163-BB115C6DC3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1879,45 +3209,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.125" style="1"/>
-    <col min="8" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="1"/>
+    <col min="8" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1934,15 +3262,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="12">
         <v>64.733999999999995</v>
       </c>
@@ -1959,15 +3287,15 @@
         <v>63.972999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="13">
         <v>58.371000000000002</v>
       </c>
@@ -1984,15 +3312,15 @@
         <v>61.993000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="13">
         <v>100</v>
       </c>
@@ -2009,15 +3337,15 @@
         <v>99.906000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="13">
         <v>100</v>
       </c>
@@ -2034,15 +3362,15 @@
         <v>99.85</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="10">
         <v>54.26</v>
       </c>
@@ -2059,7 +3387,7 @@
         <v>53.218000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:L1"/>
@@ -2075,4 +3403,204 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E0DC3B-D555-48B8-ACD7-ABE25989248D}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="1"/>
+    <col min="8" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="18">
+        <v>99.512</v>
+      </c>
+      <c r="I3" s="18">
+        <v>99.287000000000006</v>
+      </c>
+      <c r="J3" s="18">
+        <v>99.399000000000001</v>
+      </c>
+      <c r="K3" s="18">
+        <v>98.8</v>
+      </c>
+      <c r="L3" s="19">
+        <v>99.399000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="20">
+        <v>100</v>
+      </c>
+      <c r="I4" s="20">
+        <v>99.736999999999995</v>
+      </c>
+      <c r="J4" s="20">
+        <v>99.869</v>
+      </c>
+      <c r="K4" s="20">
+        <v>99.738</v>
+      </c>
+      <c r="L4" s="21">
+        <v>99.869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="20">
+        <v>72.278000000000006</v>
+      </c>
+      <c r="I5" s="20">
+        <v>64.433000000000007</v>
+      </c>
+      <c r="J5" s="20">
+        <v>68.355999999999995</v>
+      </c>
+      <c r="K5" s="20">
+        <v>36.831000000000003</v>
+      </c>
+      <c r="L5" s="21">
+        <v>68.355999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="20">
+        <v>100</v>
+      </c>
+      <c r="I6" s="20">
+        <v>100</v>
+      </c>
+      <c r="J6" s="20">
+        <v>100</v>
+      </c>
+      <c r="K6" s="20">
+        <v>100</v>
+      </c>
+      <c r="L6" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="14">
+        <v>80.254000000000005</v>
+      </c>
+      <c r="I7" s="14">
+        <v>75.337999999999994</v>
+      </c>
+      <c r="J7" s="14">
+        <v>77.796999999999997</v>
+      </c>
+      <c r="K7" s="14">
+        <v>55.774999999999999</v>
+      </c>
+      <c r="L7" s="15">
+        <v>77.796000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>